--- a/SQLtables/DatabaseTables.xlsx
+++ b/SQLtables/DatabaseTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>loc_country</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>loc_date_added</t>
+  </si>
+  <si>
+    <t>upsrt_user</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +617,33 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/SQLtables/DatabaseTables.xlsx
+++ b/SQLtables/DatabaseTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>User</t>
   </si>
@@ -31,9 +31,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>user_password</t>
-  </si>
-  <si>
     <t>user_email</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>upsrt_user</t>
+  </si>
+  <si>
+    <t>user_password_s</t>
+  </si>
+  <si>
+    <t>user_password_h</t>
   </si>
 </sst>
 </file>
@@ -160,13 +163,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,17 +487,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,12 +529,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -539,69 +542,69 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -609,48 +612,56 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQLtables/DatabaseTables.xlsx
+++ b/SQLtables/DatabaseTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -91,10 +91,7 @@
     <t>upsrt_user</t>
   </si>
   <si>
-    <t>user_password_s</t>
-  </si>
-  <si>
-    <t>user_password_h</t>
+    <t>user_password</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +539,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -550,45 +547,45 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -596,72 +593,64 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
